--- a/scripts Stata/Atual/Diff Media/BaseDadosCompiladaSumLegNeLegCPC Rev Gui 3 - Ano a Ano.xlsx
+++ b/scripts Stata/Atual/Diff Media/BaseDadosCompiladaSumLegNeLegCPC Rev Gui 3 - Ano a Ano.xlsx
@@ -5,25 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\Diff Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438A4FF6-87F0-4C13-91E8-0F66A3D29914}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482F3ABA-D604-4A34-9E3D-181730F5B450}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DadosTeses" sheetId="1" r:id="rId1"/>
     <sheet name="2010" sheetId="2" r:id="rId2"/>
-    <sheet name="2011" sheetId="3" r:id="rId3"/>
-    <sheet name="2012" sheetId="4" r:id="rId4"/>
-    <sheet name="2013" sheetId="5" r:id="rId5"/>
-    <sheet name="2014" sheetId="6" r:id="rId6"/>
-    <sheet name="2015" sheetId="7" r:id="rId7"/>
-    <sheet name="2016" sheetId="8" r:id="rId8"/>
-    <sheet name="2017" sheetId="9" r:id="rId9"/>
+    <sheet name="Planilha1" sheetId="10" r:id="rId3"/>
+    <sheet name="2011" sheetId="3" r:id="rId4"/>
+    <sheet name="2012" sheetId="4" r:id="rId5"/>
+    <sheet name="2013" sheetId="5" r:id="rId6"/>
+    <sheet name="2014" sheetId="6" r:id="rId7"/>
+    <sheet name="2015" sheetId="7" r:id="rId8"/>
+    <sheet name="2016" sheetId="8" r:id="rId9"/>
+    <sheet name="2017" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2010'!$A$1:$K$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DadosTeses!$A$1:$K$321</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -224,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,6 +257,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -268,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -316,6 +324,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11883,19 +11901,1478 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968EB205-A56E-43E5-8E3A-15C80739F97C}">
+  <dimension ref="A1:L41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D2" s="8">
+        <v>26.473684210526315</v>
+      </c>
+      <c r="E2" s="8">
+        <v>46.10526315789474</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>31</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>110</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2017</v>
+      </c>
+      <c r="D3" s="8">
+        <v>28.789473684210527</v>
+      </c>
+      <c r="E3" s="8">
+        <v>47.263157894736842</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4">
+        <v>31</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>122</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D4" s="8">
+        <v>31.916666666666668</v>
+      </c>
+      <c r="E4" s="8">
+        <v>49.166666666666664</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>31</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>56</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D5" s="8">
+        <v>27.166666666666668</v>
+      </c>
+      <c r="E5" s="8">
+        <v>44.166666666666664</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>96</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D6" s="8">
+        <v>37</v>
+      </c>
+      <c r="E6" s="8">
+        <v>48.375</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>18</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>29</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D7" s="8">
+        <v>30.083333333333332</v>
+      </c>
+      <c r="E7" s="8">
+        <v>45.75</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>123</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D8" s="8">
+        <v>26.615384615384617</v>
+      </c>
+      <c r="E8" s="8">
+        <v>46.153846153846153</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6</v>
+      </c>
+      <c r="G8" s="4">
+        <v>31</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>150</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D9" s="8">
+        <v>34.5</v>
+      </c>
+      <c r="E9" s="8">
+        <v>44.75</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4">
+        <v>12</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>83</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D10" s="8">
+        <v>29.636363636363637</v>
+      </c>
+      <c r="E10" s="8">
+        <v>45.727272727272727</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>14</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>81</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D11" s="8">
+        <v>27.235294117647058</v>
+      </c>
+      <c r="E11" s="8">
+        <v>46.823529411764703</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4">
+        <v>31</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>217</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D12" s="8">
+        <v>29.666666666666668</v>
+      </c>
+      <c r="E12" s="8">
+        <v>47</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4">
+        <v>31</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>89</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D13" s="8">
+        <v>27.76923076923077</v>
+      </c>
+      <c r="E13" s="8">
+        <v>46.769230769230766</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>10</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>54</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D14" s="8">
+        <v>36.117647058823529</v>
+      </c>
+      <c r="E14" s="8">
+        <v>47.941176470588232</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>31</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>91</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D15" s="8">
+        <v>29.153846153846153</v>
+      </c>
+      <c r="E15" s="8">
+        <v>46.384615384615387</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>31</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>59</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D16" s="8">
+        <v>28</v>
+      </c>
+      <c r="E16" s="8">
+        <v>47.5</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4">
+        <v>31</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>63</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D17" s="8">
+        <v>28.117647058823529</v>
+      </c>
+      <c r="E17" s="8">
+        <v>46.176470588235297</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>11</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>70</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D18" s="8">
+        <v>35.06666666666667</v>
+      </c>
+      <c r="E18" s="8">
+        <v>47.8</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3</v>
+      </c>
+      <c r="G18" s="4">
+        <v>13</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>54</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D19" s="8">
+        <v>29.866666666666667</v>
+      </c>
+      <c r="E19" s="8">
+        <v>46.733333333333334</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4</v>
+      </c>
+      <c r="G19" s="4">
+        <v>31</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>64</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D20" s="8">
+        <v>33.384615384615387</v>
+      </c>
+      <c r="E20" s="8">
+        <v>46.615384615384613</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4">
+        <v>10</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
+        <v>60</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D21" s="8">
+        <v>32.75</v>
+      </c>
+      <c r="E21" s="8">
+        <v>46.916666666666664</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3</v>
+      </c>
+      <c r="G21" s="4">
+        <v>13</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21" s="5">
+        <v>66</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D22" s="8">
+        <v>35.93333333333333</v>
+      </c>
+      <c r="E22" s="8">
+        <v>45.733333333333334</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4">
+        <v>31</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <v>71</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D23" s="8">
+        <v>28.363636363636363</v>
+      </c>
+      <c r="E23" s="8">
+        <v>47.545454545454547</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4">
+        <v>31</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23" s="5">
+        <v>43</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D24" s="8">
+        <v>27.25</v>
+      </c>
+      <c r="E24" s="8">
+        <v>44.9375</v>
+      </c>
+      <c r="F24" s="4">
+        <v>4</v>
+      </c>
+      <c r="G24" s="4">
+        <v>14</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5">
+        <v>98</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D25" s="8">
+        <v>35.294117647058826</v>
+      </c>
+      <c r="E25" s="8">
+        <v>46.588235294117645</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4">
+        <v>23</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5">
+        <v>100</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D26" s="8">
+        <v>25.444444444444443</v>
+      </c>
+      <c r="E26" s="8">
+        <v>46.555555555555557</v>
+      </c>
+      <c r="F26" s="4">
+        <v>5</v>
+      </c>
+      <c r="G26" s="4">
+        <v>31</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5">
+        <v>134</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D27" s="8">
+        <v>35.857142857142854</v>
+      </c>
+      <c r="E27" s="8">
+        <v>47.571428571428569</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4">
+        <v>20</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5">
+        <v>44</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D28" s="8">
+        <v>32.352941176470587</v>
+      </c>
+      <c r="E28" s="8">
+        <v>45.470588235294116</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3</v>
+      </c>
+      <c r="G28" s="4">
+        <v>20</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+      <c r="I28" s="5">
+        <v>69</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D29" s="8">
+        <v>29.666666666666668</v>
+      </c>
+      <c r="E29" s="8">
+        <v>45.333333333333336</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
+        <v>21</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="5">
+        <v>119</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D30" s="8">
+        <v>29.611111111111111</v>
+      </c>
+      <c r="E30" s="8">
+        <v>46.555555555555557</v>
+      </c>
+      <c r="F30" s="4">
+        <v>5</v>
+      </c>
+      <c r="G30" s="4">
+        <v>29</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0</v>
+      </c>
+      <c r="I30" s="5">
+        <v>89</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D31" s="8">
+        <v>26.25</v>
+      </c>
+      <c r="E31" s="8">
+        <v>46.7</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" s="4">
+        <v>31</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="5">
+        <v>72</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D32" s="8">
+        <v>30.46153846153846</v>
+      </c>
+      <c r="E32" s="8">
+        <v>46.46153846153846</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4">
+        <v>11</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0</v>
+      </c>
+      <c r="I32" s="5">
+        <v>66</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0</v>
+      </c>
+      <c r="K32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D33" s="8">
+        <v>28.25</v>
+      </c>
+      <c r="E33" s="8">
+        <v>48.875</v>
+      </c>
+      <c r="F33" s="4">
+        <v>5</v>
+      </c>
+      <c r="G33" s="4">
+        <v>19</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="5">
+        <v>105</v>
+      </c>
+      <c r="J33" s="4">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D34" s="8">
+        <v>31.1875</v>
+      </c>
+      <c r="E34" s="8">
+        <v>46.125</v>
+      </c>
+      <c r="F34" s="4">
+        <v>4</v>
+      </c>
+      <c r="G34" s="4">
+        <v>30</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
+      </c>
+      <c r="I34" s="5">
+        <v>111</v>
+      </c>
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D35" s="8">
+        <v>28.266666666666666</v>
+      </c>
+      <c r="E35" s="8">
+        <v>48.333333333333336</v>
+      </c>
+      <c r="F35" s="4">
+        <v>5</v>
+      </c>
+      <c r="G35" s="4">
+        <v>31</v>
+      </c>
+      <c r="H35" s="4">
+        <v>1</v>
+      </c>
+      <c r="I35" s="5">
+        <v>75</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D36" s="8">
+        <v>28.1875</v>
+      </c>
+      <c r="E36" s="8">
+        <v>45.75</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" s="4">
+        <v>31</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>99</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D37" s="8">
+        <v>30.142857142857142</v>
+      </c>
+      <c r="E37" s="8">
+        <v>46</v>
+      </c>
+      <c r="F37" s="4">
+        <v>3</v>
+      </c>
+      <c r="G37" s="4">
+        <v>31</v>
+      </c>
+      <c r="H37" s="4">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4">
+        <v>30</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D38" s="8">
+        <v>27.882352941176471</v>
+      </c>
+      <c r="E38" s="8">
+        <v>44.941176470588232</v>
+      </c>
+      <c r="F38" s="4">
+        <v>5</v>
+      </c>
+      <c r="G38" s="4">
+        <v>12</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4">
+        <v>118</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D39" s="8">
+        <v>27.266666666666666</v>
+      </c>
+      <c r="E39" s="8">
+        <v>45.8</v>
+      </c>
+      <c r="F39" s="4">
+        <v>3</v>
+      </c>
+      <c r="G39" s="4">
+        <v>11</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4">
+        <v>67</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D40" s="8">
+        <v>24.625</v>
+      </c>
+      <c r="E40" s="8">
+        <v>45.5625</v>
+      </c>
+      <c r="F40" s="4">
+        <v>4</v>
+      </c>
+      <c r="G40" s="4">
+        <v>10</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>97</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="4">
+        <v>2017</v>
+      </c>
+      <c r="D41" s="8">
+        <v>20.666666666666668</v>
+      </c>
+      <c r="E41" s="8">
+        <v>46.916666666666664</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>7</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4">
+        <v>50</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE3BFA5-8DDB-4F29-8F23-52E74ACD4814}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -11908,13 +13385,13 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="17" t="s">
         <v>51</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="11" t="s">
@@ -11943,13 +13420,13 @@
       <c r="C2" s="4">
         <v>2010</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="18">
         <v>25.25</v>
       </c>
       <c r="E2" s="8">
         <v>43.4375</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="20">
         <v>3</v>
       </c>
       <c r="G2" s="4">
@@ -11978,13 +13455,13 @@
       <c r="C3" s="4">
         <v>2010</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="18">
         <v>26.894736842105264</v>
       </c>
       <c r="E3" s="8">
         <v>46.263157894736842</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="20">
         <v>4</v>
       </c>
       <c r="G3" s="4">
@@ -12013,13 +13490,13 @@
       <c r="C4" s="4">
         <v>2010</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="18">
         <v>28.071428571428573</v>
       </c>
       <c r="E4" s="8">
         <v>44.714285714285715</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="20">
         <v>6</v>
       </c>
       <c r="G4" s="4">
@@ -12048,13 +13525,13 @@
       <c r="C5" s="4">
         <v>2010</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="18">
         <v>31.76923076923077</v>
       </c>
       <c r="E5" s="8">
         <v>43.384615384615387</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="20">
         <v>6</v>
       </c>
       <c r="G5" s="4">
@@ -12083,13 +13560,13 @@
       <c r="C6" s="4">
         <v>2010</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="18">
         <v>31.333333333333332</v>
       </c>
       <c r="E6" s="8">
         <v>48</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="20">
         <v>1</v>
       </c>
       <c r="G6" s="4">
@@ -12118,13 +13595,13 @@
       <c r="C7" s="4">
         <v>2010</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="18">
         <v>32.5</v>
       </c>
       <c r="E7" s="8">
         <v>43.357142857142854</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="20">
         <v>3</v>
       </c>
       <c r="G7" s="4">
@@ -12153,13 +13630,13 @@
       <c r="C8" s="4">
         <v>2010</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="18">
         <v>27.333333333333332</v>
       </c>
       <c r="E8" s="8">
         <v>46.416666666666664</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="20">
         <v>6</v>
       </c>
       <c r="G8" s="4">
@@ -12188,13 +13665,13 @@
       <c r="C9" s="4">
         <v>2010</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="18">
         <v>23.555555555555557</v>
       </c>
       <c r="E9" s="8">
         <v>44.888888888888886</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="20">
         <v>3</v>
       </c>
       <c r="G9" s="4">
@@ -12223,13 +13700,13 @@
       <c r="C10" s="4">
         <v>2010</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="18">
         <v>22.153846153846153</v>
       </c>
       <c r="E10" s="8">
         <v>43.307692307692307</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="20">
         <v>4</v>
       </c>
       <c r="G10" s="4">
@@ -12258,13 +13735,13 @@
       <c r="C11" s="4">
         <v>2010</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="18">
         <v>20.1875</v>
       </c>
       <c r="E11" s="8">
         <v>44.25</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="20">
         <v>4</v>
       </c>
       <c r="G11" s="4">
@@ -12293,13 +13770,13 @@
       <c r="C12" s="4">
         <v>2010</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="18">
         <v>30.384615384615383</v>
       </c>
       <c r="E12" s="8">
         <v>45.230769230769234</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="20">
         <v>5</v>
       </c>
       <c r="G12" s="4">
@@ -12328,13 +13805,13 @@
       <c r="C13" s="4">
         <v>2010</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="18">
         <v>24.153846153846153</v>
       </c>
       <c r="E13" s="8">
         <v>45.46153846153846</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="20">
         <v>1</v>
       </c>
       <c r="G13" s="4">
@@ -12363,13 +13840,13 @@
       <c r="C14" s="4">
         <v>2010</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="18">
         <v>33.117647058823529</v>
       </c>
       <c r="E14" s="8">
         <v>46.823529411764703</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="20">
         <v>2</v>
       </c>
       <c r="G14" s="4">
@@ -12398,13 +13875,13 @@
       <c r="C15" s="4">
         <v>2010</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="18">
         <v>27.928571428571427</v>
       </c>
       <c r="E15" s="8">
         <v>44.714285714285715</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="20">
         <v>5</v>
       </c>
       <c r="G15" s="4">
@@ -12433,13 +13910,13 @@
       <c r="C16" s="4">
         <v>2010</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="18">
         <v>32.142857142857146</v>
       </c>
       <c r="E16" s="8">
         <v>44.714285714285715</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="20">
         <v>4</v>
       </c>
       <c r="G16" s="4">
@@ -12468,13 +13945,13 @@
       <c r="C17" s="4">
         <v>2010</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="18">
         <v>31.333333333333332</v>
       </c>
       <c r="E17" s="8">
         <v>45.866666666666667</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="20">
         <v>3</v>
       </c>
       <c r="G17" s="4">
@@ -12503,13 +13980,13 @@
       <c r="C18" s="4">
         <v>2010</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="18">
         <v>29.75</v>
       </c>
       <c r="E18" s="8">
         <v>46.6875</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="20">
         <v>4</v>
       </c>
       <c r="G18" s="4">
@@ -12538,13 +14015,13 @@
       <c r="C19" s="4">
         <v>2010</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="18">
         <v>27.153846153846153</v>
       </c>
       <c r="E19" s="8">
         <v>47.230769230769234</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="20">
         <v>3</v>
       </c>
       <c r="G19" s="4">
@@ -12573,13 +14050,13 @@
       <c r="C20" s="4">
         <v>2010</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="18">
         <v>34.75</v>
       </c>
       <c r="E20" s="8">
         <v>46.333333333333336</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="20">
         <v>3</v>
       </c>
       <c r="G20" s="4">
@@ -12608,13 +14085,13 @@
       <c r="C21" s="4">
         <v>2010</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="18">
         <v>28.545454545454547</v>
       </c>
       <c r="E21" s="8">
         <v>46.81818181818182</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="20">
         <v>3</v>
       </c>
       <c r="G21" s="4">
@@ -12643,13 +14120,13 @@
       <c r="C22" s="4">
         <v>2010</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="18">
         <v>27.571428571428573</v>
       </c>
       <c r="E22" s="8">
         <v>44.285714285714285</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="20">
         <v>4</v>
       </c>
       <c r="G22" s="4">
@@ -12678,13 +14155,13 @@
       <c r="C23" s="4">
         <v>2010</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="18">
         <v>28.416666666666668</v>
       </c>
       <c r="E23" s="8">
         <v>46.333333333333336</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="20">
         <v>2</v>
       </c>
       <c r="G23" s="4">
@@ -12713,13 +14190,13 @@
       <c r="C24" s="4">
         <v>2010</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="18">
         <v>25.846153846153847</v>
       </c>
       <c r="E24" s="8">
         <v>45</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="20">
         <v>4</v>
       </c>
       <c r="G24" s="4">
@@ -12748,13 +14225,13 @@
       <c r="C25" s="4">
         <v>2010</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="18">
         <v>30.058823529411764</v>
       </c>
       <c r="E25" s="8">
         <v>44.176470588235297</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="20">
         <v>4</v>
       </c>
       <c r="G25" s="4">
@@ -12783,13 +14260,13 @@
       <c r="C26" s="4">
         <v>2010</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="18">
         <v>25.466666666666665</v>
       </c>
       <c r="E26" s="8">
         <v>44.133333333333333</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="20">
         <v>5</v>
       </c>
       <c r="G26" s="4">
@@ -12818,13 +14295,13 @@
       <c r="C27" s="4">
         <v>2010</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="18">
         <v>29.5</v>
       </c>
       <c r="E27" s="8">
         <v>46.214285714285715</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="20">
         <v>1</v>
       </c>
       <c r="G27" s="4">
@@ -12853,13 +14330,13 @@
       <c r="C28" s="4">
         <v>2010</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="18">
         <v>29.4375</v>
       </c>
       <c r="E28" s="8">
         <v>44.25</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="20">
         <v>6</v>
       </c>
       <c r="G28" s="4">
@@ -12888,13 +14365,13 @@
       <c r="C29" s="4">
         <v>2010</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="18">
         <v>33.666666666666664</v>
       </c>
       <c r="E29" s="8">
         <v>45.25</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="20">
         <v>2</v>
       </c>
       <c r="G29" s="4">
@@ -12923,13 +14400,13 @@
       <c r="C30" s="4">
         <v>2010</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="18">
         <v>26.117647058823529</v>
       </c>
       <c r="E30" s="8">
         <v>44.117647058823529</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="20">
         <v>5</v>
       </c>
       <c r="G30" s="4">
@@ -12958,13 +14435,13 @@
       <c r="C31" s="4">
         <v>2010</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="18">
         <v>24.6875</v>
       </c>
       <c r="E31" s="8">
         <v>46.125</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="20">
         <v>2</v>
       </c>
       <c r="G31" s="4">
@@ -12993,13 +14470,13 @@
       <c r="C32" s="4">
         <v>2010</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="18">
         <v>25.5</v>
       </c>
       <c r="E32" s="8">
         <v>46.416666666666664</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="20">
         <v>2</v>
       </c>
       <c r="G32" s="4">
@@ -13028,13 +14505,13 @@
       <c r="C33" s="4">
         <v>2010</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="18">
         <v>27.066666666666666</v>
       </c>
       <c r="E33" s="8">
         <v>48.466666666666669</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="20">
         <v>4</v>
       </c>
       <c r="G33" s="4">
@@ -13063,13 +14540,13 @@
       <c r="C34" s="4">
         <v>2010</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="18">
         <v>29.066666666666666</v>
       </c>
       <c r="E34" s="8">
         <v>45.2</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="20">
         <v>4</v>
       </c>
       <c r="G34" s="4">
@@ -13098,13 +14575,13 @@
       <c r="C35" s="4">
         <v>2010</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="18">
         <v>25.6875</v>
       </c>
       <c r="E35" s="8">
         <v>46.375</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="20">
         <v>5</v>
       </c>
       <c r="G35" s="4">
@@ -13133,13 +14610,13 @@
       <c r="C36" s="4">
         <v>2010</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="18">
         <v>26.647058823529413</v>
       </c>
       <c r="E36" s="8">
         <v>43.764705882352942</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="20">
         <v>1</v>
       </c>
       <c r="G36" s="4">
@@ -13168,13 +14645,13 @@
       <c r="C37" s="4">
         <v>2010</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="18">
         <v>26.846153846153847</v>
       </c>
       <c r="E37" s="8">
         <v>45.615384615384613</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="20">
         <v>3</v>
       </c>
       <c r="G37" s="4">
@@ -13203,13 +14680,13 @@
       <c r="C38" s="4">
         <v>2010</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="18">
         <v>25.0625</v>
       </c>
       <c r="E38" s="8">
         <v>44.4375</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="20">
         <v>4</v>
       </c>
       <c r="G38" s="4">
@@ -13238,13 +14715,13 @@
       <c r="C39" s="4">
         <v>2010</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="18">
         <v>27.6875</v>
       </c>
       <c r="E39" s="8">
         <v>44.375</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="20">
         <v>2</v>
       </c>
       <c r="G39" s="4">
@@ -13273,13 +14750,13 @@
       <c r="C40" s="4">
         <v>2010</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="18">
         <v>19.642857142857142</v>
       </c>
       <c r="E40" s="8">
         <v>44.642857142857146</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="20">
         <v>4</v>
       </c>
       <c r="G40" s="4">
@@ -13308,13 +14785,13 @@
       <c r="C41" s="4">
         <v>2010</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="18">
         <v>27.90909090909091</v>
       </c>
       <c r="E41" s="8">
         <v>46.18181818181818</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="20">
         <v>1</v>
       </c>
       <c r="G41" s="4">
@@ -13331,6 +14808,51 @@
       </c>
       <c r="K41" s="4">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K41" xr:uid="{E65ECEEE-A918-4DF4-BB65-1CFF68D788F7}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF65CEE-4846-479A-ADAC-81BF348D6770}">
+  <dimension ref="B1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2010</v>
+      </c>
+      <c r="C1">
+        <v>2011</v>
+      </c>
+      <c r="D1">
+        <v>2012</v>
+      </c>
+      <c r="E1">
+        <v>2013</v>
+      </c>
+      <c r="F1">
+        <v>2014</v>
+      </c>
+      <c r="G1">
+        <v>2015</v>
+      </c>
+      <c r="H1">
+        <v>2016</v>
+      </c>
+      <c r="I1">
+        <v>2017</v>
+      </c>
+      <c r="J1">
+        <v>2018</v>
       </c>
     </row>
   </sheetData>
@@ -13338,7 +14860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4925FA3B-CA3C-4AA7-A559-347B76308E63}">
   <dimension ref="A1:K41"/>
   <sheetViews>
@@ -14788,7 +16310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1573468-6F70-4C26-83E3-10C79471798C}">
   <dimension ref="A1:K41"/>
   <sheetViews>
@@ -16238,11 +17760,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC697E6E-F8FF-4657-9069-EB3562185309}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -17693,7 +19215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7DE9BE-3C6B-4CB3-82E9-BFB4CACFAB6B}">
   <dimension ref="A1:K41"/>
   <sheetViews>
@@ -19143,7 +20665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6424FA61-A96D-483D-B3DB-A1AF7CEA014A}">
   <dimension ref="A1:K41"/>
   <sheetViews>
@@ -20597,7 +22119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4451773-5803-4978-BF2B-EF9B0C37FAFC}">
   <dimension ref="A1:K41"/>
   <sheetViews>
@@ -22045,1462 +23567,4 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968EB205-A56E-43E5-8E3A-15C80739F97C}">
-  <dimension ref="A1:L41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="16"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D2" s="8">
-        <v>26.473684210526315</v>
-      </c>
-      <c r="E2" s="8">
-        <v>46.10526315789474</v>
-      </c>
-      <c r="F2" s="4">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4">
-        <v>31</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>110</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2017</v>
-      </c>
-      <c r="D3" s="8">
-        <v>28.789473684210527</v>
-      </c>
-      <c r="E3" s="8">
-        <v>47.263157894736842</v>
-      </c>
-      <c r="F3" s="4">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4">
-        <v>31</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5">
-        <v>122</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D4" s="8">
-        <v>31.916666666666668</v>
-      </c>
-      <c r="E4" s="8">
-        <v>49.166666666666664</v>
-      </c>
-      <c r="F4" s="4">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4">
-        <v>31</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>56</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D5" s="8">
-        <v>27.166666666666668</v>
-      </c>
-      <c r="E5" s="8">
-        <v>44.166666666666664</v>
-      </c>
-      <c r="F5" s="4">
-        <v>6</v>
-      </c>
-      <c r="G5" s="4">
-        <v>12</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
-        <v>96</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D6" s="8">
-        <v>37</v>
-      </c>
-      <c r="E6" s="8">
-        <v>48.375</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>18</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <v>29</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D7" s="8">
-        <v>30.083333333333332</v>
-      </c>
-      <c r="E7" s="8">
-        <v>45.75</v>
-      </c>
-      <c r="F7" s="4">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4">
-        <v>18</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5">
-        <v>123</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D8" s="8">
-        <v>26.615384615384617</v>
-      </c>
-      <c r="E8" s="8">
-        <v>46.153846153846153</v>
-      </c>
-      <c r="F8" s="4">
-        <v>6</v>
-      </c>
-      <c r="G8" s="4">
-        <v>31</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>150</v>
-      </c>
-      <c r="J8" s="4">
-        <v>1</v>
-      </c>
-      <c r="K8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D9" s="8">
-        <v>34.5</v>
-      </c>
-      <c r="E9" s="8">
-        <v>44.75</v>
-      </c>
-      <c r="F9" s="4">
-        <v>5</v>
-      </c>
-      <c r="G9" s="4">
-        <v>12</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5">
-        <v>83</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D10" s="8">
-        <v>29.636363636363637</v>
-      </c>
-      <c r="E10" s="8">
-        <v>45.727272727272727</v>
-      </c>
-      <c r="F10" s="4">
-        <v>4</v>
-      </c>
-      <c r="G10" s="4">
-        <v>14</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5">
-        <v>81</v>
-      </c>
-      <c r="J10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D11" s="8">
-        <v>27.235294117647058</v>
-      </c>
-      <c r="E11" s="8">
-        <v>46.823529411764703</v>
-      </c>
-      <c r="F11" s="4">
-        <v>5</v>
-      </c>
-      <c r="G11" s="4">
-        <v>31</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>217</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1</v>
-      </c>
-      <c r="K11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D12" s="8">
-        <v>29.666666666666668</v>
-      </c>
-      <c r="E12" s="8">
-        <v>47</v>
-      </c>
-      <c r="F12" s="4">
-        <v>4</v>
-      </c>
-      <c r="G12" s="4">
-        <v>31</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="5">
-        <v>89</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D13" s="8">
-        <v>27.76923076923077</v>
-      </c>
-      <c r="E13" s="8">
-        <v>46.769230769230766</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4">
-        <v>10</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-      <c r="I13" s="5">
-        <v>54</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D14" s="8">
-        <v>36.117647058823529</v>
-      </c>
-      <c r="E14" s="8">
-        <v>47.941176470588232</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4">
-        <v>31</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5">
-        <v>91</v>
-      </c>
-      <c r="J14" s="4">
-        <v>1</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D15" s="8">
-        <v>29.153846153846153</v>
-      </c>
-      <c r="E15" s="8">
-        <v>46.384615384615387</v>
-      </c>
-      <c r="F15" s="4">
-        <v>5</v>
-      </c>
-      <c r="G15" s="4">
-        <v>31</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>59</v>
-      </c>
-      <c r="J15" s="4">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D16" s="8">
-        <v>28</v>
-      </c>
-      <c r="E16" s="8">
-        <v>47.5</v>
-      </c>
-      <c r="F16" s="4">
-        <v>4</v>
-      </c>
-      <c r="G16" s="4">
-        <v>31</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>63</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D17" s="8">
-        <v>28.117647058823529</v>
-      </c>
-      <c r="E17" s="8">
-        <v>46.176470588235297</v>
-      </c>
-      <c r="F17" s="4">
-        <v>2</v>
-      </c>
-      <c r="G17" s="4">
-        <v>11</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5">
-        <v>70</v>
-      </c>
-      <c r="J17" s="4">
-        <v>0</v>
-      </c>
-      <c r="K17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D18" s="8">
-        <v>35.06666666666667</v>
-      </c>
-      <c r="E18" s="8">
-        <v>47.8</v>
-      </c>
-      <c r="F18" s="4">
-        <v>3</v>
-      </c>
-      <c r="G18" s="4">
-        <v>13</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5">
-        <v>54</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D19" s="8">
-        <v>29.866666666666667</v>
-      </c>
-      <c r="E19" s="8">
-        <v>46.733333333333334</v>
-      </c>
-      <c r="F19" s="4">
-        <v>4</v>
-      </c>
-      <c r="G19" s="4">
-        <v>31</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <v>64</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D20" s="8">
-        <v>33.384615384615387</v>
-      </c>
-      <c r="E20" s="8">
-        <v>46.615384615384613</v>
-      </c>
-      <c r="F20" s="4">
-        <v>3</v>
-      </c>
-      <c r="G20" s="4">
-        <v>10</v>
-      </c>
-      <c r="H20" s="4">
-        <v>1</v>
-      </c>
-      <c r="I20" s="5">
-        <v>60</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D21" s="8">
-        <v>32.75</v>
-      </c>
-      <c r="E21" s="8">
-        <v>46.916666666666664</v>
-      </c>
-      <c r="F21" s="4">
-        <v>3</v>
-      </c>
-      <c r="G21" s="4">
-        <v>13</v>
-      </c>
-      <c r="H21" s="4">
-        <v>1</v>
-      </c>
-      <c r="I21" s="5">
-        <v>66</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D22" s="8">
-        <v>35.93333333333333</v>
-      </c>
-      <c r="E22" s="8">
-        <v>45.733333333333334</v>
-      </c>
-      <c r="F22" s="4">
-        <v>3</v>
-      </c>
-      <c r="G22" s="4">
-        <v>31</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
-        <v>71</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D23" s="8">
-        <v>28.363636363636363</v>
-      </c>
-      <c r="E23" s="8">
-        <v>47.545454545454547</v>
-      </c>
-      <c r="F23" s="4">
-        <v>2</v>
-      </c>
-      <c r="G23" s="4">
-        <v>31</v>
-      </c>
-      <c r="H23" s="4">
-        <v>1</v>
-      </c>
-      <c r="I23" s="5">
-        <v>43</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D24" s="8">
-        <v>27.25</v>
-      </c>
-      <c r="E24" s="8">
-        <v>44.9375</v>
-      </c>
-      <c r="F24" s="4">
-        <v>4</v>
-      </c>
-      <c r="G24" s="4">
-        <v>14</v>
-      </c>
-      <c r="H24" s="4">
-        <v>1</v>
-      </c>
-      <c r="I24" s="5">
-        <v>98</v>
-      </c>
-      <c r="J24" s="4">
-        <v>0</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D25" s="8">
-        <v>35.294117647058826</v>
-      </c>
-      <c r="E25" s="8">
-        <v>46.588235294117645</v>
-      </c>
-      <c r="F25" s="4">
-        <v>2</v>
-      </c>
-      <c r="G25" s="4">
-        <v>23</v>
-      </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="5">
-        <v>100</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D26" s="8">
-        <v>25.444444444444443</v>
-      </c>
-      <c r="E26" s="8">
-        <v>46.555555555555557</v>
-      </c>
-      <c r="F26" s="4">
-        <v>5</v>
-      </c>
-      <c r="G26" s="4">
-        <v>31</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
-      <c r="I26" s="5">
-        <v>134</v>
-      </c>
-      <c r="J26" s="4">
-        <v>1</v>
-      </c>
-      <c r="K26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D27" s="8">
-        <v>35.857142857142854</v>
-      </c>
-      <c r="E27" s="8">
-        <v>47.571428571428569</v>
-      </c>
-      <c r="F27" s="4">
-        <v>1</v>
-      </c>
-      <c r="G27" s="4">
-        <v>20</v>
-      </c>
-      <c r="H27" s="4">
-        <v>1</v>
-      </c>
-      <c r="I27" s="5">
-        <v>44</v>
-      </c>
-      <c r="J27" s="4">
-        <v>0</v>
-      </c>
-      <c r="K27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D28" s="8">
-        <v>32.352941176470587</v>
-      </c>
-      <c r="E28" s="8">
-        <v>45.470588235294116</v>
-      </c>
-      <c r="F28" s="4">
-        <v>3</v>
-      </c>
-      <c r="G28" s="4">
-        <v>20</v>
-      </c>
-      <c r="H28" s="4">
-        <v>1</v>
-      </c>
-      <c r="I28" s="5">
-        <v>69</v>
-      </c>
-      <c r="J28" s="4">
-        <v>0</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D29" s="8">
-        <v>29.666666666666668</v>
-      </c>
-      <c r="E29" s="8">
-        <v>45.333333333333336</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4">
-        <v>21</v>
-      </c>
-      <c r="H29" s="4">
-        <v>1</v>
-      </c>
-      <c r="I29" s="5">
-        <v>119</v>
-      </c>
-      <c r="J29" s="4">
-        <v>1</v>
-      </c>
-      <c r="K29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D30" s="8">
-        <v>29.611111111111111</v>
-      </c>
-      <c r="E30" s="8">
-        <v>46.555555555555557</v>
-      </c>
-      <c r="F30" s="4">
-        <v>5</v>
-      </c>
-      <c r="G30" s="4">
-        <v>29</v>
-      </c>
-      <c r="H30" s="4">
-        <v>0</v>
-      </c>
-      <c r="I30" s="5">
-        <v>89</v>
-      </c>
-      <c r="J30" s="4">
-        <v>1</v>
-      </c>
-      <c r="K30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D31" s="8">
-        <v>26.25</v>
-      </c>
-      <c r="E31" s="8">
-        <v>46.7</v>
-      </c>
-      <c r="F31" s="4">
-        <v>2</v>
-      </c>
-      <c r="G31" s="4">
-        <v>31</v>
-      </c>
-      <c r="H31" s="4">
-        <v>1</v>
-      </c>
-      <c r="I31" s="5">
-        <v>72</v>
-      </c>
-      <c r="J31" s="4">
-        <v>0</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D32" s="8">
-        <v>30.46153846153846</v>
-      </c>
-      <c r="E32" s="8">
-        <v>46.46153846153846</v>
-      </c>
-      <c r="F32" s="4">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4">
-        <v>11</v>
-      </c>
-      <c r="H32" s="4">
-        <v>0</v>
-      </c>
-      <c r="I32" s="5">
-        <v>66</v>
-      </c>
-      <c r="J32" s="4">
-        <v>0</v>
-      </c>
-      <c r="K32" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D33" s="8">
-        <v>28.25</v>
-      </c>
-      <c r="E33" s="8">
-        <v>48.875</v>
-      </c>
-      <c r="F33" s="4">
-        <v>5</v>
-      </c>
-      <c r="G33" s="4">
-        <v>19</v>
-      </c>
-      <c r="H33" s="4">
-        <v>1</v>
-      </c>
-      <c r="I33" s="5">
-        <v>105</v>
-      </c>
-      <c r="J33" s="4">
-        <v>1</v>
-      </c>
-      <c r="K33" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D34" s="8">
-        <v>31.1875</v>
-      </c>
-      <c r="E34" s="8">
-        <v>46.125</v>
-      </c>
-      <c r="F34" s="4">
-        <v>4</v>
-      </c>
-      <c r="G34" s="4">
-        <v>30</v>
-      </c>
-      <c r="H34" s="4">
-        <v>0</v>
-      </c>
-      <c r="I34" s="5">
-        <v>111</v>
-      </c>
-      <c r="J34" s="4">
-        <v>0</v>
-      </c>
-      <c r="K34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D35" s="8">
-        <v>28.266666666666666</v>
-      </c>
-      <c r="E35" s="8">
-        <v>48.333333333333336</v>
-      </c>
-      <c r="F35" s="4">
-        <v>5</v>
-      </c>
-      <c r="G35" s="4">
-        <v>31</v>
-      </c>
-      <c r="H35" s="4">
-        <v>1</v>
-      </c>
-      <c r="I35" s="5">
-        <v>75</v>
-      </c>
-      <c r="J35" s="4">
-        <v>1</v>
-      </c>
-      <c r="K35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D36" s="8">
-        <v>28.1875</v>
-      </c>
-      <c r="E36" s="8">
-        <v>45.75</v>
-      </c>
-      <c r="F36" s="4">
-        <v>2</v>
-      </c>
-      <c r="G36" s="4">
-        <v>31</v>
-      </c>
-      <c r="H36" s="4">
-        <v>0</v>
-      </c>
-      <c r="I36" s="4">
-        <v>99</v>
-      </c>
-      <c r="J36" s="4">
-        <v>1</v>
-      </c>
-      <c r="K36" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D37" s="8">
-        <v>30.142857142857142</v>
-      </c>
-      <c r="E37" s="8">
-        <v>46</v>
-      </c>
-      <c r="F37" s="4">
-        <v>3</v>
-      </c>
-      <c r="G37" s="4">
-        <v>31</v>
-      </c>
-      <c r="H37" s="4">
-        <v>1</v>
-      </c>
-      <c r="I37" s="4">
-        <v>30</v>
-      </c>
-      <c r="J37" s="4">
-        <v>0</v>
-      </c>
-      <c r="K37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D38" s="8">
-        <v>27.882352941176471</v>
-      </c>
-      <c r="E38" s="8">
-        <v>44.941176470588232</v>
-      </c>
-      <c r="F38" s="4">
-        <v>5</v>
-      </c>
-      <c r="G38" s="4">
-        <v>12</v>
-      </c>
-      <c r="H38" s="4">
-        <v>1</v>
-      </c>
-      <c r="I38" s="4">
-        <v>118</v>
-      </c>
-      <c r="J38" s="4">
-        <v>0</v>
-      </c>
-      <c r="K38" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D39" s="8">
-        <v>27.266666666666666</v>
-      </c>
-      <c r="E39" s="8">
-        <v>45.8</v>
-      </c>
-      <c r="F39" s="4">
-        <v>3</v>
-      </c>
-      <c r="G39" s="4">
-        <v>11</v>
-      </c>
-      <c r="H39" s="4">
-        <v>1</v>
-      </c>
-      <c r="I39" s="4">
-        <v>67</v>
-      </c>
-      <c r="J39" s="4">
-        <v>0</v>
-      </c>
-      <c r="K39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D40" s="8">
-        <v>24.625</v>
-      </c>
-      <c r="E40" s="8">
-        <v>45.5625</v>
-      </c>
-      <c r="F40" s="4">
-        <v>4</v>
-      </c>
-      <c r="G40" s="4">
-        <v>10</v>
-      </c>
-      <c r="H40" s="4">
-        <v>0</v>
-      </c>
-      <c r="I40" s="4">
-        <v>97</v>
-      </c>
-      <c r="J40" s="4">
-        <v>0</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="4">
-        <v>2017</v>
-      </c>
-      <c r="D41" s="8">
-        <v>20.666666666666668</v>
-      </c>
-      <c r="E41" s="8">
-        <v>46.916666666666664</v>
-      </c>
-      <c r="F41" s="4">
-        <v>1</v>
-      </c>
-      <c r="G41" s="4">
-        <v>7</v>
-      </c>
-      <c r="H41" s="4">
-        <v>1</v>
-      </c>
-      <c r="I41" s="4">
-        <v>50</v>
-      </c>
-      <c r="J41" s="4">
-        <v>0</v>
-      </c>
-      <c r="K41" s="4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/scripts Stata/Atual/Diff Media/BaseDadosCompiladaSumLegNeLegCPC Rev Gui 3 - Ano a Ano.xlsx
+++ b/scripts Stata/Atual/Diff Media/BaseDadosCompiladaSumLegNeLegCPC Rev Gui 3 - Ano a Ano.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Regis\Documents\GitHub\teseLegibildiadeCPC\scripts Stata\Atual\Diff Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5EA83B-5940-4B58-A454-E95E78854BDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD262E53-85E2-4AA0-BD3A-4FA33C9004B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="766" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DadosTeses" sheetId="1" r:id="rId1"/>
